--- a/data/Melipeuco.xlsx
+++ b/data/Melipeuco.xlsx
@@ -1399,7 +1399,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Transmisora Valle Allipén S.A.</t>
+          <t>Trasmisora Melipeuco S.A.</t>
         </is>
       </c>
       <c r="F22" t="n">

--- a/data/Melipeuco.xlsx
+++ b/data/Melipeuco.xlsx
@@ -1639,7 +1639,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Invertec Pesquera Mar de Chiloé</t>
+          <t>Inversiones La Cantera Limitada</t>
         </is>
       </c>
       <c r="F27" t="n">

--- a/data/Melipeuco.xlsx
+++ b/data/Melipeuco.xlsx
@@ -596,7 +596,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
